--- a/medicine/Psychotrope/John_Henry_Davies/John_Henry_Davies.xlsx
+++ b/medicine/Psychotrope/John_Henry_Davies/John_Henry_Davies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Henry Davies (1864-1927) est un riche propriétaire de brasseries qui a repris le club de football britannique Manchester United Football Club alors appelé Newton Heath. Le club avait une lourde dette à l'époque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Davies est né à Cheadle, Grand Manchester. Il y a une histoire populaire sur la manière dont il est venu pour reprendre le club. La légende dit que le chien du défenseur Harry Stafford a couru vers Davies. Après des discussions avec Stafford, qui ont commencé par le désir de Davies d'acheter le chien, Davies a décidé d'acheter l'équipe. Davies a donné à l'équipe beaucoup d'argent pour faire venir Ernest Mangnall et des joueurs comme Billy Meredith et Sandy Turnbull.
 Davies a changé le nom du club de Manchester United et remplacé les couleurs vert et jaune par les célèbres maillots rouges et blancs. Il fut l'un des propriétaires du manoir Bramall.
